--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/ApixUINames.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/ApixUINames.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>eng_Name</t>
   </si>
@@ -311,6 +311,108 @@
   </si>
   <si>
     <t>마법 저항력</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>cursor</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>OnlyTarget</t>
+  </si>
+  <si>
+    <t>Bounded</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Heal, PhysicalRange, TrueDamage</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PhysicalRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TrueDamage</t>
+  </si>
+  <si>
+    <t>PhysicalRange</t>
+  </si>
+  <si>
+    <t>TrueDamage</t>
+  </si>
+  <si>
+    <t>고정 피해</t>
+  </si>
+  <si>
+    <t>원거리 피해</t>
+  </si>
+  <si>
+    <t>회복</t>
+  </si>
+  <si>
+    <t>마법</t>
+  </si>
+  <si>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>원거리</t>
+  </si>
+  <si>
+    <t>고정</t>
+  </si>
+  <si>
+    <t>ㅔㅗ</t>
+  </si>
+  <si>
+    <t>물리</t>
+  </si>
+  <si>
+    <t>광역</t>
+  </si>
+  <si>
+    <t>단일</t>
+  </si>
+  <si>
+    <t>정의되지 않음</t>
+  </si>
+  <si>
+    <t>마우스</t>
+  </si>
+  <si>
+    <t>플레이어</t>
+  </si>
+  <si>
+    <t>자기 자신</t>
+  </si>
+  <si>
+    <t>버프</t>
+  </si>
+  <si>
+    <t>액티브</t>
+  </si>
+  <si>
+    <t>패시브</t>
   </si>
 </sst>
 </file>
@@ -1210,16 +1312,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="2" width="13.88000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1396,6 +1497,110 @@
       </c>
       <c r="B22" s="0" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/ApixUINames.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/ApixUINames.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.257.54764"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>eng_Name</t>
   </si>
@@ -413,6 +413,93 @@
   </si>
   <si>
     <t>패시브</t>
+  </si>
+  <si>
+    <t>Slay</t>
+  </si>
+  <si>
+    <t>처치하세요</t>
+  </si>
+  <si>
+    <t>lo_KO</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>수집하세요</t>
+  </si>
+  <si>
+    <t>interact</t>
+  </si>
+  <si>
+    <t>상호작용 하세요</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>회</t>
+  </si>
+  <si>
+    <t>convasation with</t>
+  </si>
+  <si>
+    <t>converSation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 NPC와 대화하세요 : </t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>조건 완료</t>
+  </si>
+  <si>
+    <t>lo_ko</t>
+  </si>
+  <si>
+    <t>helloWorld</t>
+  </si>
+  <si>
+    <t>troubleMaker</t>
+  </si>
+  <si>
+    <t>모험 시작</t>
+  </si>
+  <si>
+    <t>말썽꾸러기</t>
+  </si>
+  <si>
+    <t>MOB_Slime</t>
+  </si>
+  <si>
+    <t>슬라임</t>
+  </si>
+  <si>
+    <t>NPC_Roras</t>
+  </si>
+  <si>
+    <t>로라스</t>
+  </si>
+  <si>
+    <t>JobEXP</t>
+  </si>
+  <si>
+    <t>BaseEXP</t>
+  </si>
+  <si>
+    <t>직업 경험치</t>
+  </si>
+  <si>
+    <t>경험치</t>
   </si>
 </sst>
 </file>
@@ -1312,15 +1399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A34" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="13.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="16.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="24.37999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1328,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1601,6 +1689,110 @@
       </c>
       <c r="B35" s="0" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
